--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -189,7 +189,10 @@
     <t>主卧背景</t>
   </si>
   <si>
-    <t>280每平</t>
+    <t>领绣墙布 280每平</t>
+  </si>
+  <si>
+    <t>已付3000定金</t>
   </si>
   <si>
     <t>次卧背景</t>
@@ -226,6 +229,9 @@
   </si>
   <si>
     <t>阳台封边</t>
+  </si>
+  <si>
+    <t>已付88定金</t>
   </si>
   <si>
     <t>所有窗沿4周</t>
@@ -546,12 +552,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -561,13 +567,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -597,9 +597,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -612,13 +624,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -630,6 +636,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -643,6 +657,12 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
@@ -651,21 +671,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -677,16 +690,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -765,19 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,31 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,13 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +826,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,32 +970,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1007,9 +987,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,8 +1014,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,23 +1038,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color indexed="22"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,7 +1081,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,142 +1090,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1240,11 +1246,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,7 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,13 +1286,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,22 +1304,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,7 +1331,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,34 +1343,34 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1376,19 +1382,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1415,22 +1421,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1814,9 +1820,9 @@
   <dimension ref="A1:J4601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2390,17 +2396,19 @@
       <c r="G29" s="14">
         <v>10000</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A30" s="11">
         <v>2</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="12"/>
@@ -2415,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="12"/>
@@ -2449,7 +2457,7 @@
     <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A34" s="15"/>
       <c r="B34" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="15"/>
@@ -2463,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="39">
@@ -2480,7 +2488,7 @@
         <v>16842.8</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2488,10 +2496,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="27">
@@ -2518,7 +2526,7 @@
     <row r="38" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="15"/>
@@ -2532,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="20"/>
@@ -2541,14 +2549,16 @@
       <c r="G39" s="43">
         <v>10000</v>
       </c>
-      <c r="H39" s="44"/>
+      <c r="H39" s="44" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A40" s="11">
         <v>2</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="20"/>
@@ -2562,7 +2572,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="20"/>
@@ -2576,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="20"/>
@@ -2588,7 +2598,7 @@
     <row r="43" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A43" s="15"/>
       <c r="B43" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="15"/>
@@ -2602,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="20"/>
@@ -2612,7 +2622,7 @@
         <v>15000</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2620,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="20"/>
@@ -2634,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="20"/>
@@ -2648,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="20"/>
@@ -2662,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="20"/>
@@ -2688,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="20" t="s">
@@ -2704,7 +2714,7 @@
         <v>1500</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2712,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="20" t="s">
@@ -2729,7 +2739,7 @@
         <v>4500</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2737,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="20" t="s">
@@ -2760,10 +2770,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>14</v>
@@ -2779,13 +2789,13 @@
         <v>1100</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A54" s="15"/>
       <c r="B54" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="15"/>
@@ -2799,10 +2809,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>14</v>
@@ -2818,7 +2828,7 @@
         <v>21000</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2826,10 +2836,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>14</v>
@@ -2851,10 +2861,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>14</v>
@@ -2876,10 +2886,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>25</v>
@@ -2901,10 +2911,10 @@
         <v>5</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>25</v>
@@ -2926,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="20" t="s">
@@ -2949,10 +2959,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>14</v>
@@ -2968,7 +2978,7 @@
         <v>3000</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2976,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="20" t="s">
@@ -2999,10 +3009,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>25</v>
@@ -3024,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="20" t="s">
@@ -3047,10 +3057,10 @@
         <v>12</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>25</v>
@@ -3069,7 +3079,7 @@
     <row r="66" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A66" s="15"/>
       <c r="B66" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="15"/>
@@ -3083,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>14</v>
@@ -3102,7 +3112,7 @@
         <v>2000</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3110,10 +3120,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>14</v>
@@ -3129,7 +3139,7 @@
         <v>2500</v>
       </c>
       <c r="H68" s="54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3137,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>14</v>
@@ -3162,10 +3172,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>14</v>
@@ -3187,10 +3197,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>14</v>
@@ -3212,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>25</v>
@@ -3235,7 +3245,7 @@
     <row r="73" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A73" s="15"/>
       <c r="B73" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="15"/>
@@ -3249,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>14</v>
@@ -3268,7 +3278,7 @@
         <v>2000</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -3276,10 +3286,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>14</v>
@@ -3295,7 +3305,7 @@
         <v>2500</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -3303,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>25</v>
@@ -3322,7 +3332,7 @@
         <v>3500</v>
       </c>
       <c r="H76" s="54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -3330,10 +3340,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>14</v>
@@ -3355,10 +3365,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>25</v>
@@ -3378,7 +3388,7 @@
     <row r="79" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A79" s="15"/>
       <c r="B79" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="15"/>
@@ -3392,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>14</v>
@@ -3411,7 +3421,7 @@
         <v>7500</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3419,10 +3429,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>14</v>
@@ -3438,7 +3448,7 @@
         <v>11300</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3446,10 +3456,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>25</v>
@@ -3465,7 +3475,7 @@
         <v>6000</v>
       </c>
       <c r="H82" s="54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3473,10 +3483,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>14</v>
@@ -3496,7 +3506,7 @@
     <row r="84" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A84" s="15"/>
       <c r="B84" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="15"/>
@@ -3510,10 +3520,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>25</v>
@@ -3528,7 +3538,7 @@
         <v>8000</v>
       </c>
       <c r="H85" s="56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3536,10 +3546,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>25</v>
@@ -3560,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>25</v>
@@ -3584,10 +3594,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>25</v>
@@ -3608,10 +3618,10 @@
         <v>5</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>14</v>
@@ -3633,10 +3643,10 @@
         <v>6</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>25</v>
@@ -3658,7 +3668,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="20" t="s">
@@ -3681,10 +3691,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>25</v>
@@ -3704,7 +3714,7 @@
     <row r="93" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A93" s="15"/>
       <c r="B93" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="15"/>
@@ -3718,10 +3728,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>25</v>
@@ -3736,7 +3746,7 @@
         <v>5500</v>
       </c>
       <c r="H94" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3744,10 +3754,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>25</v>
@@ -3768,10 +3778,10 @@
         <v>5</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>25</v>
@@ -3792,10 +3802,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>25</v>
@@ -3816,10 +3826,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>14</v>
@@ -3841,10 +3851,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>25</v>
@@ -3865,7 +3875,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="20" t="s">
@@ -3888,7 +3898,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="20" t="s">
@@ -3911,10 +3921,10 @@
         <v>9</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D102" s="20" t="s">
         <v>25</v>
@@ -3934,7 +3944,7 @@
     <row r="103" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A103" s="15"/>
       <c r="B103" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="15"/>
@@ -3948,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C104" s="29"/>
       <c r="D104" s="20" t="s">
@@ -3968,10 +3978,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D105" s="20" t="s">
         <v>25</v>
@@ -3993,10 +4003,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D106" s="20" t="s">
         <v>25</v>
@@ -4018,10 +4028,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D107" s="20" t="s">
         <v>25</v>
@@ -4043,10 +4053,10 @@
         <v>5</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D108" s="20" t="s">
         <v>25</v>
@@ -4066,7 +4076,7 @@
     <row r="109" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A109" s="15"/>
       <c r="B109" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="15"/>
@@ -4080,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="20" t="s">
@@ -4100,7 +4110,7 @@
     <row r="111" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A111" s="15"/>
       <c r="B111" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C111" s="17"/>
       <c r="D111" s="15"/>
@@ -4114,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="20" t="s">
@@ -4137,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="20" t="s">
@@ -4158,7 +4168,7 @@
     <row r="114" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A114" s="15"/>
       <c r="B114" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="15"/>
@@ -4172,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C115" s="60"/>
       <c r="D115" s="61"/>
@@ -4201,7 +4211,7 @@
     </row>
     <row r="118" s="4" customFormat="1" ht="27" spans="2:8">
       <c r="B118" s="69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C118" s="70">
         <f>SUM(G:G)</f>
@@ -48345,7 +48355,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:FG118"/>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A2:A3"/>
@@ -48358,6 +48368,7 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H39:H42"/>
     <mergeCell ref="H44:H48"/>
     <mergeCell ref="H55:H57"/>
     <mergeCell ref="H85:H88"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>电动晾衣架</t>
-  </si>
-  <si>
-    <t>太太乐</t>
   </si>
   <si>
     <t>实惠+晾衣架100</t>
@@ -614,17 +611,42 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="31">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -636,86 +658,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -733,6 +683,40 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -741,23 +725,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -834,25 +831,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,13 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,6 +1031,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -1048,32 +1060,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,7 +1090,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,7 +1114,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,17 +1124,6 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,7 +1141,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1153,136 +1150,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1525,25 +1522,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1892,9 +1889,9 @@
   <dimension ref="A1:J4601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2876,9 +2873,7 @@
       <c r="B54" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="C54" s="13"/>
       <c r="D54" s="20" t="s">
         <v>14</v>
       </c>
@@ -2893,13 +2888,13 @@
         <v>1100</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A55" s="15"/>
       <c r="B55" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="15"/>
@@ -2913,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>14</v>
@@ -2932,7 +2927,7 @@
         <v>21000</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2940,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>14</v>
@@ -2965,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>14</v>
@@ -2990,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>26</v>
@@ -3015,10 +3010,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>26</v>
@@ -3040,7 +3035,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="20" t="s">
@@ -3063,10 +3058,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>14</v>
@@ -3082,7 +3077,7 @@
         <v>3000</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3090,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="20" t="s">
@@ -3113,10 +3108,10 @@
         <v>10</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>26</v>
@@ -3138,7 +3133,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="20" t="s">
@@ -3161,10 +3156,10 @@
         <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>26</v>
@@ -3197,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>14</v>
@@ -3216,7 +3211,7 @@
         <v>2000</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3224,10 +3219,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="55" t="s">
         <v>120</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>121</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>14</v>
@@ -3243,7 +3238,7 @@
         <v>2500</v>
       </c>
       <c r="H69" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3251,10 +3246,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>14</v>
@@ -3270,7 +3265,7 @@
         <v>3751</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3278,10 +3273,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="55" t="s">
         <v>126</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>127</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>14</v>
@@ -3303,10 +3298,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>26</v>
@@ -3340,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>14</v>
@@ -3359,7 +3354,7 @@
         <v>2000</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -3367,10 +3362,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>14</v>
@@ -3386,7 +3381,7 @@
         <v>2500</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -3394,7 +3389,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="20" t="s">
@@ -3416,10 +3411,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>26</v>
@@ -3453,10 +3448,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>14</v>
@@ -3472,7 +3467,7 @@
         <v>7500</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3480,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>14</v>
@@ -3499,7 +3494,7 @@
         <v>11300</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3507,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="57" t="s">
         <v>137</v>
-      </c>
-      <c r="C81" s="57" t="s">
-        <v>138</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>26</v>
@@ -3526,7 +3521,7 @@
         <v>6000</v>
       </c>
       <c r="H81" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3534,10 +3529,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="57" t="s">
         <v>140</v>
-      </c>
-      <c r="C82" s="57" t="s">
-        <v>141</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>14</v>
@@ -3557,7 +3552,7 @@
     <row r="83" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A83" s="15"/>
       <c r="B83" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="15"/>
@@ -3571,10 +3566,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>26</v>
@@ -3589,7 +3584,7 @@
         <v>8000</v>
       </c>
       <c r="H84" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3597,10 +3592,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>26</v>
@@ -3621,10 +3616,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>26</v>
@@ -3645,10 +3640,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>26</v>
@@ -3669,10 +3664,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>14</v>
@@ -3694,10 +3689,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>26</v>
@@ -3719,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="20" t="s">
@@ -3742,10 +3737,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>26</v>
@@ -3765,7 +3760,7 @@
     <row r="92" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A92" s="15"/>
       <c r="B92" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="15"/>
@@ -3779,10 +3774,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>26</v>
@@ -3797,7 +3792,7 @@
         <v>5500</v>
       </c>
       <c r="H93" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3805,10 +3800,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>26</v>
@@ -3829,10 +3824,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>156</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>157</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>26</v>
@@ -3853,10 +3848,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>26</v>
@@ -3877,10 +3872,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>14</v>
@@ -3902,10 +3897,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>26</v>
@@ -3926,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="20" t="s">
@@ -3949,7 +3944,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="20" t="s">
@@ -3972,10 +3967,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C101" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>26</v>
@@ -3995,7 +3990,7 @@
     <row r="102" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A102" s="15"/>
       <c r="B102" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="15"/>
@@ -4009,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="30"/>
       <c r="D103" s="20" t="s">
@@ -4029,10 +4024,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="30" t="s">
         <v>163</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>164</v>
       </c>
       <c r="D104" s="20" t="s">
         <v>26</v>
@@ -4054,10 +4049,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D105" s="20" t="s">
         <v>26</v>
@@ -4079,10 +4074,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" s="30" t="s">
         <v>166</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>167</v>
       </c>
       <c r="D106" s="20" t="s">
         <v>26</v>
@@ -4104,10 +4099,10 @@
         <v>5</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D107" s="20" t="s">
         <v>26</v>
@@ -4127,7 +4122,7 @@
     <row r="108" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A108" s="15"/>
       <c r="B108" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="15"/>
@@ -4141,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="20" t="s">
@@ -4161,7 +4156,7 @@
     <row r="110" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A110" s="15"/>
       <c r="B110" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="15"/>
@@ -4175,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="20" t="s">
@@ -4198,7 +4193,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="20" t="s">
@@ -4219,7 +4214,7 @@
     <row r="113" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A113" s="15"/>
       <c r="B113" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="15"/>
@@ -4233,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C114" s="62"/>
       <c r="D114" s="63"/>
@@ -4262,7 +4257,7 @@
     </row>
     <row r="117" s="4" customFormat="1" ht="27" spans="2:8">
       <c r="B117" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C117" s="72">
         <f>SUM(G:G)</f>
@@ -4281,7 +4276,7 @@
     </row>
     <row r="119" s="2" customFormat="1" ht="90" customHeight="1" spans="2:8">
       <c r="B119" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" s="73"/>
       <c r="G119" s="74"/>
@@ -4289,26 +4284,26 @@
     </row>
     <row r="120" s="2" customFormat="1" ht="75" customHeight="1" spans="2:8">
       <c r="B120" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C120" s="13">
         <v>2000</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G120" s="74"/>
       <c r="H120" s="74"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="74" customHeight="1" spans="2:8">
       <c r="B121" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C121" s="13">
         <v>8000</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G121" s="74"/>
       <c r="H121" s="74"/>
@@ -4322,7 +4317,7 @@
     </row>
     <row r="123" s="2" customFormat="1" ht="51" customHeight="1" spans="2:8">
       <c r="B123" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C123" s="73"/>
       <c r="G123" s="74"/>
@@ -4331,7 +4326,7 @@
     <row r="124" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A124" s="15"/>
       <c r="B124" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="15"/>
@@ -4345,19 +4340,19 @@
         <v>1</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C125" s="13">
         <v>4599</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="21"/>
       <c r="G125" s="14"/>
       <c r="H125" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -4365,13 +4360,13 @@
         <v>2</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C126" s="13">
         <v>4399</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="21"/>
@@ -4383,13 +4378,13 @@
         <v>3</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C127" s="13">
         <v>6000</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="21"/>
@@ -4404,7 +4399,7 @@
     <row r="129" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A129" s="15"/>
       <c r="B129" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="15"/>
@@ -4418,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="20"/>
@@ -4432,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="20"/>
@@ -4454,7 +4449,7 @@
     <row r="133" s="3" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A133" s="15"/>
       <c r="B133" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="15"/>
@@ -4468,19 +4463,19 @@
         <v>1</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C134" s="13">
         <v>4300</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="21"/>
       <c r="G134" s="14"/>
       <c r="H134" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -4507,7 +4502,7 @@
     </row>
     <row r="137" s="2" customFormat="1" ht="68" customHeight="1" spans="2:8">
       <c r="B137" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C137" s="72">
         <f>SUM(C125:C134)</f>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -258,7 +258,7 @@
     <t>260*(10+9.6*2)弧度算2倍</t>
   </si>
   <si>
-    <t>已付定金7500，还有7000尾款</t>
+    <t>已付定金7500（100+7400淘宝拍），还有7000尾款</t>
   </si>
   <si>
     <t>所有窗沿4周（窗套）</t>
@@ -576,7 +576,7 @@
     <t>3楼 所有房间油漆，外墙</t>
   </si>
   <si>
-    <t>已付4500，再付1500，尾款2000（7.30）</t>
+    <t>已付4500，已付1500，尾款2000（7.30）</t>
   </si>
   <si>
     <t>做在装修公司合同中（聚通）</t>
@@ -627,12 +627,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -641,14 +641,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -661,13 +702,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -680,57 +721,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -744,9 +751,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -754,13 +761,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -846,7 +846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +876,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,25 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,19 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,6 +1045,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1056,6 +1067,30 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,30 +1114,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -1113,17 +1124,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,7 +1156,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,142 +1165,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1321,11 +1321,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1337,7 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,13 +1361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,26 +1379,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,37 +1419,37 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1464,19 +1464,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1503,22 +1503,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1538,25 +1538,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1905,9 +1905,9 @@
   <dimension ref="A1:J4602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2107,7 +2107,7 @@
         <v>2900</v>
       </c>
       <c r="G9" s="22">
-        <f t="shared" ref="G9:G11" si="1">E9*F9</f>
+        <f t="shared" ref="G9:G13" si="1">E9*F9</f>
         <v>2900</v>
       </c>
       <c r="H9" s="28" t="s">
@@ -2642,7 +2642,9 @@
       <c r="G37" s="14">
         <v>7000</v>
       </c>
-      <c r="H37" s="28"/>
+      <c r="H37" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A38" s="11"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -67,7 +67,7 @@
     <t>套</t>
   </si>
   <si>
-    <t>（定金3000+预定18210）30%+ 空调尾款已付33950 + 地暖尾款未付15540</t>
+    <t>已付清（定金3000+预定18210）30%+ 空调尾款付33950 + 地暖尾款已付15540</t>
   </si>
   <si>
     <t>空调大金3年保修隐蔽工程终身。发票晚些开延长时间。安装使用后，隐蔽安装找集美售后，机器找大金，首先找集美。空调没有自清洁，一年拆下来滤网清洁一下。深度清洁要找专业人员。</t>
@@ -627,16 +627,60 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="31">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -649,14 +693,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -675,101 +765,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -846,19 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,12 +864,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -894,7 +876,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,13 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,13 +936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,17 +1045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1075,7 +1064,33 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,24 +1110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1128,17 +1125,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,7 +1156,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,142 +1165,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1321,11 +1321,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1337,7 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,13 +1361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,26 +1379,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,37 +1419,37 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1464,19 +1464,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1503,22 +1503,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1538,25 +1538,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1905,9 +1905,9 @@
   <dimension ref="A1:J4602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -635,13 +635,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -734,6 +734,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -754,6 +768,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
@@ -762,21 +782,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -791,14 +805,13 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -808,36 +821,23 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -867,13 +867,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,19 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,49 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,32 +1103,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,11 +1138,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,42 +1167,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,52 +1232,46 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,46 +1280,46 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,7 +1340,7 @@
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1365,7 +1365,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1569,8 +1569,8 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="差_预算" xfId="1"/>
-    <cellStyle name="好_预算" xfId="2"/>
+    <cellStyle name="好_预算" xfId="1"/>
+    <cellStyle name="差_预算" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1952,9 +1952,9 @@
   <dimension ref="A1:J4605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2154,7 +2154,7 @@
         <v>2700</v>
       </c>
       <c r="G9" s="31">
-        <f t="shared" ref="G9:G13" si="1">E9*F9</f>
+        <f t="shared" ref="G9:G14" si="1">E9*F9</f>
         <v>2700</v>
       </c>
       <c r="H9" s="35" t="s">
@@ -2283,7 +2283,7 @@
         <v>250</v>
       </c>
       <c r="G14" s="31">
-        <f>E14*F14</f>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="H14" s="35" t="s">
@@ -3143,11 +3143,11 @@
         <v>1</v>
       </c>
       <c r="F62" s="18">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="G62" s="28">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="H62" s="28"/>
     </row>
@@ -3353,7 +3353,7 @@
         <v>2000</v>
       </c>
       <c r="G71" s="28">
-        <f t="shared" ref="G71:G75" si="4">E71*F71</f>
+        <f t="shared" ref="G71:G76" si="4">E71*F71</f>
         <v>2000</v>
       </c>
       <c r="H71" s="28" t="s">
@@ -3484,7 +3484,7 @@
         <v>268</v>
       </c>
       <c r="G76" s="31">
-        <f>E76*F76</f>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="H76" s="28"/>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C121" s="63">
         <f>SUM(G:G)</f>
-        <v>437701.8</v>
+        <v>437101.8</v>
       </c>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -564,7 +564,7 @@
     <t>空气净化</t>
   </si>
   <si>
-    <t>装修公司</t>
+    <t>装修公司（聚通）</t>
   </si>
   <si>
     <t>设计费</t>
@@ -635,13 +635,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -735,24 +735,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -768,22 +754,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -795,28 +795,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -827,15 +807,35 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -867,6 +867,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -879,7 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,43 +939,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,6 +1112,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1137,141 +1182,96 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,46 +1280,46 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,7 +1340,7 @@
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1361,11 +1361,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,46 +1419,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,28 +1470,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1524,7 +1524,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1533,16 +1533,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1557,20 +1557,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好_预算" xfId="1"/>
-    <cellStyle name="差_预算" xfId="2"/>
+    <cellStyle name="差_预算" xfId="1"/>
+    <cellStyle name="好_预算" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1954,7 +1954,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28140" windowHeight="13040" tabRatio="598"/>
+    <workbookView windowWidth="28140" windowHeight="13040" tabRatio="598" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="硬装半包预算" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -651,19 +651,28 @@
   <si>
     <t>（暂不计）</t>
   </si>
+  <si>
+    <t>聚通 已付</t>
+  </si>
+  <si>
+    <t>第1次</t>
+  </si>
+  <si>
+    <t>第2次</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -673,7 +682,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -691,14 +706,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -709,14 +719,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -727,27 +738,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -756,16 +746,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -782,11 +765,30 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -796,11 +798,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -877,7 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +898,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,13 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,43 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,11 +1116,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,39 +1142,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,17 +1172,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,151 +1227,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1383,11 +1392,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,13 +1432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,34 +1450,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,10 +1489,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,28 +1504,28 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1531,19 +1540,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1570,22 +1579,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1599,31 +1608,31 @@
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="强调文字颜色 4" xfId="4"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="好_预算" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="好_预算" xfId="7"/>
     <cellStyle name="标题" xfId="8"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1971,7 +1980,7 @@
   <sheetPr/>
   <dimension ref="A1:J4605"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
@@ -48784,13 +48793,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
@@ -48840,6 +48849,27 @@
         <v>400.45</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -660,19 +660,34 @@
   <si>
     <t>第2次</t>
   </si>
+  <si>
+    <t>瓷砖1</t>
+  </si>
+  <si>
+    <t>第一批</t>
+  </si>
+  <si>
+    <t>第二批</t>
+  </si>
+  <si>
+    <t>水刀</t>
+  </si>
+  <si>
+    <t>水刀2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -681,8 +696,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -693,35 +758,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -732,39 +771,7 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -778,17 +785,18 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -800,16 +808,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -886,7 +901,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,13 +937,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,31 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,37 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,17 +1131,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,46 +1155,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,7 +1183,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,7 +1242,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,142 +1251,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1392,11 +1407,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,7 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,13 +1447,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,34 +1465,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,10 +1504,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,28 +1519,28 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1540,19 +1555,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1579,22 +1594,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1614,25 +1629,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1981,9 +1996,9 @@
   <dimension ref="A1:J4605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -48793,13 +48808,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
@@ -48870,6 +48885,52 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15">
+        <v>8645.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <f>SUM(B15:B18)</f>
+        <v>15437.2</v>
+      </c>
+      <c r="D19">
+        <v>11922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28140" windowHeight="13040" tabRatio="598" activeTab="1"/>
+    <workbookView windowWidth="28140" windowHeight="13040" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="硬装半包预算" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
     <t>床垫</t>
   </si>
   <si>
-    <t>买过特别好的！！</t>
+    <t>喜临门 软硬款</t>
   </si>
   <si>
     <t>梳妆台</t>
@@ -681,13 +681,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -696,15 +696,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -716,7 +710,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -727,11 +748,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -741,13 +761,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -759,8 +787,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -773,42 +808,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -816,13 +823,6 @@
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -901,7 +901,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,13 +943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,37 +961,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,19 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,16 +1165,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,16 +1189,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,7 +1242,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,34 +1251,118 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1287,100 +1371,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1629,25 +1629,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -1995,10 +1995,10 @@
   <sheetPr/>
   <dimension ref="A1:J4605"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46:H50"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3904,11 +3904,11 @@
         <v>1</v>
       </c>
       <c r="F92" s="21">
-        <v>500</v>
-      </c>
-      <c r="G92" s="14">
+        <v>1459</v>
+      </c>
+      <c r="G92" s="22">
         <f>E92*F92</f>
-        <v>500</v>
+        <v>1459</v>
       </c>
       <c r="H92" s="63"/>
     </row>
@@ -4112,11 +4112,11 @@
         <v>1</v>
       </c>
       <c r="F101" s="21">
-        <v>500</v>
-      </c>
-      <c r="G101" s="14">
+        <v>1459</v>
+      </c>
+      <c r="G101" s="22">
         <f>E101*F101</f>
-        <v>500</v>
+        <v>1459</v>
       </c>
       <c r="H101" s="14"/>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C121" s="74">
         <f>SUM(G:G)</f>
-        <v>439343.8</v>
+        <v>441261.8</v>
       </c>
       <c r="D121" s="68"/>
       <c r="E121" s="68"/>
@@ -48810,7 +48810,7 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11000" tabRatio="598" activeTab="1"/>
+    <workbookView windowWidth="24860" windowHeight="11000" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="硬装半包预算" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>LM高端锁扣</t>
+  </si>
+  <si>
+    <t>预计43.5平 多拿了1.5平</t>
   </si>
   <si>
     <t>大理石</t>
@@ -711,13 +714,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -810,12 +813,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -824,10 +821,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -850,6 +853,18 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -858,22 +873,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -889,6 +905,13 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -897,36 +920,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -950,13 +953,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +983,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,67 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,32 +1219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1271,27 +1248,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,67 +1306,67 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1381,43 +1384,43 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1430,7 +1433,7 @@
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1451,11 +1454,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,58 +1506,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,31 +1566,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1620,7 +1623,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1629,16 +1632,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1653,20 +1656,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好_预算" xfId="1"/>
-    <cellStyle name="差_预算" xfId="2"/>
+    <cellStyle name="差_预算" xfId="1"/>
+    <cellStyle name="好_预算" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -2047,10 +2050,10 @@
   <sheetPr/>
   <dimension ref="A1:J4606"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2815,17 +2818,16 @@
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="45">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F38" s="46">
-        <v>410.8</v>
+        <v>410</v>
       </c>
       <c r="G38" s="34">
-        <f>E38*F38</f>
-        <v>16842.8</v>
+        <v>18447.2</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2841,7 +2843,7 @@
     <row r="40" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="15"/>
@@ -2855,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="13"/>
@@ -2867,7 +2869,7 @@
         <v>14500</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2875,10 +2877,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="13"/>
@@ -2891,10 +2893,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="13"/>
@@ -2907,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="14">
         <v>1600</v>
@@ -2921,7 +2923,7 @@
     <row r="45" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A45" s="15"/>
       <c r="B45" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="15"/>
@@ -2935,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="18"/>
@@ -2945,7 +2947,7 @@
         <v>16922</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -2953,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="18"/>
@@ -2967,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="18"/>
@@ -2981,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="18"/>
@@ -2995,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="18"/>
@@ -3009,14 +3011,14 @@
         <v>7</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="50">
         <v>0</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3024,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="18"/>
@@ -3054,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="18" t="s">
@@ -3070,7 +3072,7 @@
         <v>1500</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3078,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>28</v>
@@ -3103,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="18" t="s">
@@ -3126,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="18" t="s">
@@ -3143,13 +3145,13 @@
         <v>1100</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="15"/>
@@ -3163,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>14</v>
@@ -3182,7 +3184,7 @@
         <v>21000</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3190,10 +3192,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>14</v>
@@ -3215,10 +3217,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>14</v>
@@ -3240,10 +3242,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>28</v>
@@ -3265,10 +3267,10 @@
         <v>5</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>28</v>
@@ -3290,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="18" t="s">
@@ -3313,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="18" t="s">
@@ -3336,7 +3338,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="18" t="s">
@@ -3359,10 +3361,10 @@
         <v>10</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>28</v>
@@ -3384,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="18" t="s">
@@ -3407,10 +3409,10 @@
         <v>12</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>28</v>
@@ -3429,7 +3431,7 @@
     <row r="70" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A70" s="15"/>
       <c r="B70" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="15"/>
@@ -3443,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>14</v>
@@ -3462,7 +3464,7 @@
         <v>2000</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3470,10 +3472,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C72" s="59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>14</v>
@@ -3489,7 +3491,7 @@
         <v>2500</v>
       </c>
       <c r="H72" s="69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3497,10 +3499,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>14</v>
@@ -3516,7 +3518,7 @@
         <v>3751</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3524,10 +3526,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>14</v>
@@ -3549,10 +3551,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>28</v>
@@ -3574,10 +3576,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>28</v>
@@ -3597,7 +3599,7 @@
     <row r="77" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A77" s="15"/>
       <c r="B77" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="15"/>
@@ -3611,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>14</v>
@@ -3630,7 +3632,7 @@
         <v>2000</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -3638,10 +3640,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>14</v>
@@ -3657,7 +3659,7 @@
         <v>2500</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -3665,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="18" t="s">
@@ -3687,10 +3689,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>28</v>
@@ -3710,7 +3712,7 @@
     <row r="82" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A82" s="15"/>
       <c r="B82" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="15"/>
@@ -3724,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>14</v>
@@ -3743,7 +3745,7 @@
         <v>7500</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3751,10 +3753,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>14</v>
@@ -3770,7 +3772,7 @@
         <v>11300</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3778,10 +3780,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>28</v>
@@ -3803,10 +3805,10 @@
         <v>4</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>14</v>
@@ -3828,10 +3830,10 @@
         <v>5</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>14</v>
@@ -3846,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A88" s="15"/>
       <c r="B88" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="15"/>
@@ -3866,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>28</v>
@@ -3884,7 +3886,7 @@
         <v>8000</v>
       </c>
       <c r="H89" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3892,10 +3894,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>28</v>
@@ -3916,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>28</v>
@@ -3940,10 +3942,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>28</v>
@@ -3964,10 +3966,10 @@
         <v>5</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>14</v>
@@ -3989,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>28</v>
@@ -4014,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="18" t="s">
@@ -4037,10 +4039,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>28</v>
@@ -4060,7 +4062,7 @@
     <row r="97" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A97" s="15"/>
       <c r="B97" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="15"/>
@@ -4074,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>28</v>
@@ -4092,7 +4094,7 @@
         <v>5500</v>
       </c>
       <c r="H98" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4100,10 +4102,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>28</v>
@@ -4124,10 +4126,10 @@
         <v>5</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>28</v>
@@ -4148,10 +4150,10 @@
         <v>6</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>28</v>
@@ -4172,10 +4174,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>14</v>
@@ -4197,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>28</v>
@@ -4221,7 +4223,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="18" t="s">
@@ -4244,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="18" t="s">
@@ -4267,10 +4269,10 @@
         <v>9</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106" s="60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>28</v>
@@ -4304,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="18" t="s">
@@ -4324,10 +4326,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>28</v>
@@ -4349,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>28</v>
@@ -4374,10 +4376,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>28</v>
@@ -4399,10 +4401,10 @@
         <v>5</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>28</v>
@@ -4422,7 +4424,7 @@
     <row r="113" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A113" s="15"/>
       <c r="B113" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="15"/>
@@ -4436,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="18" t="s">
@@ -4456,7 +4458,7 @@
     <row r="115" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A115" s="15"/>
       <c r="B115" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="15"/>
@@ -4470,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="18" t="s">
@@ -4493,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="18" t="s">
@@ -4514,7 +4516,7 @@
     <row r="118" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A118" s="15"/>
       <c r="B118" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="15"/>
@@ -4528,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C119" s="61"/>
       <c r="D119" s="62"/>
@@ -4557,11 +4559,11 @@
     </row>
     <row r="122" s="5" customFormat="1" ht="31.6" spans="2:8">
       <c r="B122" s="65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C122" s="66">
         <f>SUM(G:G)</f>
-        <v>438349.8</v>
+        <v>439954.2</v>
       </c>
       <c r="D122" s="63"/>
       <c r="E122" s="63"/>
@@ -4576,7 +4578,7 @@
     </row>
     <row r="124" s="3" customFormat="1" ht="90" customHeight="1" spans="2:8">
       <c r="B124" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C124" s="67"/>
       <c r="G124" s="79"/>
@@ -4584,26 +4586,26 @@
     </row>
     <row r="125" s="3" customFormat="1" ht="75" customHeight="1" spans="2:8">
       <c r="B125" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C125" s="14">
         <v>2000</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G125" s="79"/>
       <c r="H125" s="79"/>
     </row>
     <row r="126" s="3" customFormat="1" ht="74" customHeight="1" spans="2:8">
       <c r="B126" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" s="14">
         <v>8000</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G126" s="79"/>
       <c r="H126" s="79"/>
@@ -4617,7 +4619,7 @@
     </row>
     <row r="128" s="3" customFormat="1" ht="51" customHeight="1" spans="2:8">
       <c r="B128" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C128" s="67"/>
       <c r="G128" s="79"/>
@@ -4626,7 +4628,7 @@
     <row r="129" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A129" s="15"/>
       <c r="B129" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="15"/>
@@ -4640,19 +4642,19 @@
         <v>1</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C130" s="14">
         <v>4599</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="21"/>
       <c r="G130" s="27"/>
       <c r="H130" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -4660,13 +4662,13 @@
         <v>2</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C131" s="14">
         <v>4399</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="21"/>
@@ -4678,13 +4680,13 @@
         <v>3</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C132" s="14">
         <v>6000</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="21"/>
@@ -4699,7 +4701,7 @@
     <row r="134" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C134" s="17"/>
       <c r="D134" s="15"/>
@@ -4713,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="18"/>
@@ -4727,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="18"/>
@@ -4749,7 +4751,7 @@
     <row r="138" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A138" s="15"/>
       <c r="B138" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="15"/>
@@ -4763,19 +4765,19 @@
         <v>1</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C139" s="14">
         <v>4300</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="21"/>
       <c r="G139" s="27"/>
       <c r="H139" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -4802,7 +4804,7 @@
     </row>
     <row r="142" s="3" customFormat="1" ht="68" customHeight="1" spans="2:8">
       <c r="B142" s="65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C142" s="66">
         <f>SUM(C130:C139)</f>
@@ -48882,7 +48884,7 @@
   <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -48895,7 +48897,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1">
         <v>399.89</v>
@@ -48903,7 +48905,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>0.56</v>
@@ -48911,24 +48913,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -48939,12 +48941,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B10">
         <v>84000</v>
@@ -48952,7 +48954,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B11">
         <v>33000</v>
@@ -48960,12 +48962,12 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B15">
         <v>8645.2</v>
@@ -48973,7 +48975,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B16">
         <v>4230</v>
@@ -48981,7 +48983,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17">
         <v>1792</v>
@@ -48989,7 +48991,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18">
         <v>770</v>
@@ -49006,82 +49008,82 @@
     </row>
     <row r="25" ht="20.4" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -430,7 +430,7 @@
     <t>小厨宝</t>
   </si>
   <si>
-    <t>5升</t>
+    <t>7500瓦 即热型 4平方线</t>
   </si>
   <si>
     <t>地漏</t>
@@ -714,13 +714,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -820,13 +820,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -839,13 +832,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
@@ -853,23 +839,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -879,17 +853,17 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -902,12 +876,25 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -919,6 +906,18 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -926,10 +925,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -959,18 +959,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -989,7 +977,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,49 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,15 +1195,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1215,6 +1206,41 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,21 +1260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1263,107 +1274,96 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1372,46 +1372,46 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1420,7 +1420,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,7 +1433,7 @@
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1458,7 +1458,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1668,8 +1668,8 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="差_预算" xfId="1"/>
-    <cellStyle name="好_预算" xfId="2"/>
+    <cellStyle name="好_预算" xfId="1"/>
+    <cellStyle name="差_预算" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -2051,9 +2051,9 @@
   <dimension ref="A1:J4606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3563,11 +3563,11 @@
         <v>1</v>
       </c>
       <c r="F75" s="21">
-        <v>350</v>
-      </c>
-      <c r="G75" s="27">
+        <v>950</v>
+      </c>
+      <c r="G75" s="51">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="H75" s="27"/>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="C122" s="66">
         <f>SUM(G:G)</f>
-        <v>439954.2</v>
+        <v>440554.2</v>
       </c>
       <c r="D122" s="63"/>
       <c r="E122" s="63"/>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -661,6 +661,9 @@
     <t>（200-20）*90 + （150+15）*29 = 20985 （角花补15 大砖退20）</t>
   </si>
   <si>
+    <t>注意：这个公司少算了</t>
+  </si>
+  <si>
     <t>房价</t>
   </si>
   <si>
@@ -738,29 +741,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -774,13 +788,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -793,13 +801,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -811,48 +845,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -863,8 +858,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -950,13 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,13 +983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,13 +1001,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,31 +1031,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,13 +1192,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,17 +1231,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,18 +1251,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,16 +1275,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color indexed="63"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color indexed="63"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="63"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -1300,7 +1303,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1309,136 +1312,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1691,25 +1694,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2058,9 +2061,9 @@
   <dimension ref="A1:J4613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4906,7 +4909,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="147" s="3" customFormat="1" ht="64" customHeight="1" spans="1:8">
+    <row r="147" s="3" customFormat="1" ht="64" customHeight="1" spans="1:9">
       <c r="A147" s="12">
         <v>2</v>
       </c>
@@ -4922,6 +4925,9 @@
       <c r="G147" s="15"/>
       <c r="H147" s="14" t="s">
         <v>211</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -49029,7 +49035,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1">
         <v>399.89</v>
@@ -49037,7 +49043,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B2">
         <v>0.56</v>
@@ -49045,24 +49051,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B3">
         <v>1.89</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -49073,12 +49079,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B10">
         <v>84000</v>
@@ -49086,7 +49092,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11">
         <v>33000</v>
@@ -49094,17 +49100,17 @@
     </row>
     <row r="17" ht="18.75" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -49114,7 +49120,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -49129,12 +49135,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -49144,17 +49150,17 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -49169,7 +49175,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -11,7 +11,7 @@
     <sheet name="房子总成本" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">硬装半包预算!$A$2:H149</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">硬装半包预算!$A$2:H150</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">硬装半包预算!$1:3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">硬装半包预算!$A$2:$FG$133</definedName>
   </definedNames>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
   <si>
     <t xml:space="preserve">馨苑悦湾
 </t>
@@ -658,13 +658,16 @@
     <t>契克斯，翡冷翠庄园 照明2010e</t>
   </si>
   <si>
-    <t>角线</t>
+    <t>卫生间角线</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -27，3米一根</t>
+  </si>
+  <si>
+    <t>厨房角线</t>
   </si>
   <si>
     <t>-30 ，3米一根</t>
-  </si>
-  <si>
-    <t>注意 ：经理的价格不对</t>
   </si>
   <si>
     <t>插座，开关</t>
@@ -764,8 +767,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -781,7 +784,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -793,8 +802,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -805,14 +821,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -825,28 +850,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -858,49 +901,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -992,6 +995,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1004,7 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,37 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,31 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,6 +1228,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1267,8 +1285,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,6 +1302,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1295,30 +1322,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1345,143 +1348,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1502,7 +1505,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1518,7 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,13 +1545,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,10 +1563,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1572,40 +1575,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1617,25 +1620,25 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1644,28 +1647,28 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1695,31 +1698,31 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="255"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1736,25 +1739,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2100,12 +2103,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4618"/>
+  <dimension ref="A1:J4619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4908,7 +4911,7 @@
       <c r="D141" s="21"/>
       <c r="E141" s="13"/>
       <c r="F141" s="15">
-        <v>4761</v>
+        <v>4736</v>
       </c>
       <c r="G141" s="14" t="s">
         <v>208</v>
@@ -4949,7 +4952,7 @@
       <c r="G143" s="15"/>
     </row>
     <row r="144" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A144" s="81">
+      <c r="A144" s="12">
         <v>4</v>
       </c>
       <c r="B144" s="65" t="s">
@@ -4958,59 +4961,65 @@
       <c r="C144" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="D144" s="65">
-        <v>11</v>
+      <c r="D144" s="81">
+        <v>7</v>
       </c>
       <c r="E144" s="65">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F144" s="82">
         <f>D144*E144</f>
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="G144" s="82"/>
     </row>
-    <row r="145" s="3" customFormat="1" ht="21" customHeight="1" spans="3:7">
-      <c r="C145" s="78"/>
-      <c r="F145" s="79">
-        <f>SUM(F141:F144)</f>
-        <v>15498.6</v>
-      </c>
-      <c r="G145" s="79" t="s">
+    <row r="145" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A145" s="12">
+        <v>5</v>
+      </c>
+      <c r="B145" s="65" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="146" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A146" s="16"/>
-      <c r="B146" s="17" t="s">
+      <c r="C145" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="18"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-    </row>
-    <row r="147" s="3" customFormat="1" ht="68" customHeight="1" spans="1:8">
-      <c r="A147" s="12">
+      <c r="D145" s="65">
+        <v>4</v>
+      </c>
+      <c r="E145" s="65">
+        <v>120</v>
+      </c>
+      <c r="F145" s="82">
+        <f>D145*E145</f>
+        <v>480</v>
+      </c>
+      <c r="G145" s="82"/>
+    </row>
+    <row r="146" s="3" customFormat="1" ht="21" customHeight="1" spans="3:7">
+      <c r="C146" s="78"/>
+      <c r="F146" s="79">
+        <f>SUM(F141:F145)</f>
+        <v>15893.6</v>
+      </c>
+      <c r="G146" s="79"/>
+    </row>
+    <row r="147" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A147" s="16"/>
+      <c r="B147" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147" s="18"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" s="3" customFormat="1" ht="68" customHeight="1" spans="1:8">
+      <c r="A148" s="12">
         <v>1</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-    </row>
-    <row r="148" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A148" s="12">
-        <v>2</v>
-      </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C148" s="14"/>
@@ -5021,8 +5030,12 @@
       <c r="H148" s="15"/>
     </row>
     <row r="149" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A149" s="12"/>
-      <c r="B149" s="13"/>
+      <c r="A149" s="12">
+        <v>2</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="C149" s="14"/>
       <c r="D149" s="21"/>
       <c r="E149" s="13"/>
@@ -5030,78 +5043,83 @@
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
     </row>
-    <row r="150" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A150" s="16"/>
-      <c r="B150" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C150" s="18"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-    </row>
-    <row r="151" s="3" customFormat="1" ht="68" customHeight="1" spans="1:6">
-      <c r="A151" s="12">
+    <row r="150" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A151" s="16"/>
+      <c r="B151" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" s="3" customFormat="1" ht="68" customHeight="1" spans="1:6">
+      <c r="A152" s="12">
         <v>1</v>
       </c>
-      <c r="B151" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C151" s="14">
+      <c r="B152" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C152" s="14">
         <v>4300</v>
       </c>
-      <c r="D151" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="E151" s="13"/>
-      <c r="F151" s="14" t="s">
+      <c r="D152" s="21" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="152" s="3" customFormat="1" ht="64" customHeight="1" spans="1:7">
-      <c r="A152" s="12">
-        <v>2</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C152" s="14">
-        <v>20985</v>
-      </c>
-      <c r="D152" s="21"/>
       <c r="E152" s="13"/>
       <c r="F152" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" s="3" customFormat="1" ht="64" customHeight="1" spans="1:7">
+      <c r="A153" s="12">
+        <v>2</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="153" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A153" s="12"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="14"/>
+      <c r="C153" s="14">
+        <v>20985</v>
+      </c>
       <c r="D153" s="21"/>
       <c r="E153" s="13"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-    </row>
-    <row r="154" s="3" customFormat="1" ht="68" customHeight="1" spans="2:8">
-      <c r="B154" s="76" t="s">
+      <c r="F153" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" s="3" customFormat="1" ht="68" customHeight="1" spans="2:8">
+      <c r="B155" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C154" s="77">
-        <f>SUM(C141:C151)</f>
+      <c r="C155" s="77">
+        <f>SUM(C141:C152)</f>
         <v>4300</v>
       </c>
-      <c r="G154" s="79"/>
-      <c r="H154" s="79"/>
-    </row>
-    <row r="155" s="3" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C155" s="78"/>
       <c r="G155" s="79"/>
       <c r="H155" s="79"/>
     </row>
@@ -5710,13 +5728,8 @@
       <c r="G276" s="79"/>
       <c r="H276" s="79"/>
     </row>
-    <row r="277" customHeight="1" spans="1:8">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
+    <row r="277" s="3" customFormat="1" customHeight="1" spans="3:8">
       <c r="C277" s="78"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
       <c r="G277" s="79"/>
       <c r="H277" s="79"/>
     </row>
@@ -49129,6 +49142,16 @@
       <c r="F4618" s="3"/>
       <c r="G4618" s="79"/>
       <c r="H4618" s="79"/>
+    </row>
+    <row r="4619" customHeight="1" spans="1:8">
+      <c r="A4619" s="3"/>
+      <c r="B4619" s="3"/>
+      <c r="C4619" s="78"/>
+      <c r="D4619" s="3"/>
+      <c r="E4619" s="3"/>
+      <c r="F4619" s="3"/>
+      <c r="G4619" s="79"/>
+      <c r="H4619" s="79"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:FG133"/>
@@ -49185,7 +49208,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1">
         <v>399.89</v>
@@ -49193,7 +49216,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2">
         <v>0.56</v>
@@ -49201,24 +49224,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B3">
         <v>1.89</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -49229,12 +49252,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B10">
         <v>84000</v>
@@ -49242,7 +49265,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B11">
         <v>33000</v>
@@ -49250,17 +49273,17 @@
     </row>
     <row r="17" ht="18.75" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -49270,7 +49293,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -49285,12 +49308,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -49300,17 +49323,17 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -49325,7 +49348,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
   <si>
-    <t xml:space="preserve">馨苑悦湾 54.67
+    <t xml:space="preserve">馨苑悦湾 54.99
 </t>
   </si>
   <si>
@@ -303,10 +303,10 @@
     <t>窗帘</t>
   </si>
   <si>
-    <t>阳台</t>
+    <t>窗帘+纱窗+门帘</t>
   </si>
   <si>
-    <t>卧室</t>
+    <t>轨道</t>
   </si>
   <si>
     <t>墙布，硅藻泥</t>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>2个卫生间射灯+灯带</t>
+  </si>
+  <si>
+    <t>阳台</t>
   </si>
   <si>
     <t>洗衣柜 （不超过 110*60）</t>
@@ -851,19 +854,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -873,8 +901,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -885,16 +920,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -904,21 +947,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -930,8 +967,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -943,9 +981,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -958,41 +995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1078,7 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,13 +1093,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,49 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1141,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,16 +1330,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1371,6 +1374,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1382,17 +1400,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,15 +1414,6 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,7 +1431,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1437,136 +1440,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1822,25 +1825,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2189,9 +2192,9 @@
   <dimension ref="A1:J4627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3169,10 +3172,12 @@
       <c r="D46" s="21"/>
       <c r="E46" s="13"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="15">
-        <v>8000</v>
-      </c>
-      <c r="H46" s="15"/>
+      <c r="G46" s="23">
+        <v>11000</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A47" s="12">
@@ -3185,10 +3190,12 @@
       <c r="D47" s="21"/>
       <c r="E47" s="13"/>
       <c r="F47" s="22"/>
-      <c r="G47" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H47" s="15"/>
+      <c r="G47" s="23">
+        <v>2235</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A48" s="12"/>
@@ -3755,7 +3762,7 @@
     <row r="80" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A80" s="16"/>
       <c r="B80" s="17" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="16"/>
@@ -3769,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="21" t="s">
@@ -3785,7 +3792,7 @@
         <v>1500</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3793,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>34</v>
@@ -3818,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="21" t="s">
@@ -3841,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="21" t="s">
@@ -3858,7 +3865,7 @@
         <v>1100</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3866,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="21"/>
@@ -3880,7 +3887,7 @@
     <row r="86" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A86" s="16"/>
       <c r="B86" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="16"/>
@@ -3894,10 +3901,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>14</v>
@@ -3913,7 +3920,7 @@
         <v>21000</v>
       </c>
       <c r="H87" s="56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -3921,10 +3928,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>14</v>
@@ -3946,10 +3953,10 @@
         <v>3</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>14</v>
@@ -3971,10 +3978,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>46</v>
@@ -3996,10 +4003,10 @@
         <v>5</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>46</v>
@@ -4021,7 +4028,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="21" t="s">
@@ -4044,7 +4051,7 @@
         <v>8</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="21" t="s">
@@ -4076,10 +4083,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>14</v>
@@ -4095,7 +4102,7 @@
         <v>2000</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4103,10 +4110,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>14</v>
@@ -4130,10 +4137,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="13"/>
@@ -4150,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="13"/>
@@ -4170,10 +4177,10 @@
         <v>5</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="13"/>
@@ -4190,10 +4197,10 @@
         <v>6</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>14</v>
@@ -4217,10 +4224,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>46</v>
@@ -4244,10 +4251,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>46</v>
@@ -4271,10 +4278,10 @@
         <v>9</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="13"/>
@@ -4303,10 +4310,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D105" s="21" t="s">
         <v>14</v>
@@ -4322,7 +4329,7 @@
         <v>2000</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -4330,10 +4337,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>14</v>
@@ -4356,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="21"/>
@@ -4374,10 +4381,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="13"/>
@@ -4394,10 +4401,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="13"/>
@@ -4414,10 +4421,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>46</v>
@@ -4438,10 +4445,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D111" s="21"/>
       <c r="E111" s="13"/>
@@ -4458,10 +4465,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>46</v>
@@ -4492,10 +4499,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>14</v>
@@ -4511,7 +4518,7 @@
         <v>7500</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4519,10 +4526,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>14</v>
@@ -4546,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D116" s="21" t="s">
         <v>46</v>
@@ -4571,10 +4578,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D117" s="21" t="s">
         <v>14</v>
@@ -4596,10 +4603,10 @@
         <v>5</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D118" s="21" t="s">
         <v>14</v>
@@ -4615,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4623,7 +4630,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>34</v>
@@ -4648,10 +4655,10 @@
         <v>7</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D120" s="21"/>
       <c r="E120" s="13"/>
@@ -4664,7 +4671,7 @@
     <row r="121" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A121" s="16"/>
       <c r="B121" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="16"/>
@@ -4678,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>46</v>
@@ -4696,7 +4703,7 @@
         <v>8000</v>
       </c>
       <c r="H122" s="61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4704,10 +4711,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D123" s="21" t="s">
         <v>46</v>
@@ -4728,10 +4735,10 @@
         <v>3</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D124" s="21" t="s">
         <v>46</v>
@@ -4752,10 +4759,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>46</v>
@@ -4776,10 +4783,10 @@
         <v>5</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>14</v>
@@ -4801,7 +4808,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="21" t="s">
@@ -4822,7 +4829,7 @@
     <row r="128" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A128" s="16"/>
       <c r="B128" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="16"/>
@@ -4836,10 +4843,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D129" s="21" t="s">
         <v>46</v>
@@ -4854,7 +4861,7 @@
         <v>5500</v>
       </c>
       <c r="H129" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4862,10 +4869,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>46</v>
@@ -4886,10 +4893,10 @@
         <v>5</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>46</v>
@@ -4910,10 +4917,10 @@
         <v>6</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D132" s="21" t="s">
         <v>46</v>
@@ -4934,10 +4941,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>14</v>
@@ -4959,10 +4966,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>46</v>
@@ -4983,7 +4990,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="21" t="s">
@@ -5006,7 +5013,7 @@
         <v>8</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="21" t="s">
@@ -5029,7 +5036,7 @@
         <v>10</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C137" s="66"/>
       <c r="D137" s="21"/>
@@ -5057,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="21" t="s">
@@ -5077,10 +5084,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D140" s="21" t="s">
         <v>46</v>
@@ -5102,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>46</v>
@@ -5127,10 +5134,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>46</v>
@@ -5150,7 +5157,7 @@
     <row r="143" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A143" s="16"/>
       <c r="B143" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="16"/>
@@ -5164,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="21" t="s">
@@ -5186,10 +5193,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D145" s="21"/>
       <c r="E145" s="13"/>
@@ -5204,7 +5211,7 @@
     <row r="146" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A146" s="16"/>
       <c r="B146" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="16"/>
@@ -5218,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="21" t="s">
@@ -5241,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="21" t="s">
@@ -5262,7 +5269,7 @@
     <row r="149" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="16"/>
@@ -5276,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C150" s="67"/>
       <c r="D150" s="68"/>
@@ -5305,11 +5312,11 @@
     </row>
     <row r="153" s="5" customFormat="1" ht="27" spans="2:8">
       <c r="B153" s="76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C153" s="77">
         <f>SUM(G1:G152)</f>
-        <v>546711.2</v>
+        <v>549946.2</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
@@ -5324,7 +5331,7 @@
     </row>
     <row r="155" s="3" customFormat="1" ht="90" customHeight="1" spans="2:8">
       <c r="B155" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C155" s="78"/>
       <c r="G155" s="79"/>
@@ -5332,26 +5339,26 @@
     </row>
     <row r="156" s="3" customFormat="1" ht="75" customHeight="1" spans="2:8">
       <c r="B156" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C156" s="14">
         <v>2000</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G156" s="79"/>
       <c r="H156" s="79"/>
     </row>
     <row r="157" s="3" customFormat="1" ht="74" customHeight="1" spans="2:8">
       <c r="B157" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C157" s="14">
         <v>8000</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G157" s="79"/>
       <c r="H157" s="79"/>
@@ -5365,7 +5372,7 @@
     </row>
     <row r="159" s="3" customFormat="1" ht="51" customHeight="1" spans="2:8">
       <c r="B159" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C159" s="78"/>
       <c r="G159" s="79"/>
@@ -5374,7 +5381,7 @@
     <row r="160" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A160" s="16"/>
       <c r="B160" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="16"/>
@@ -5396,10 +5403,10 @@
       <c r="D161" s="21"/>
       <c r="E161" s="13"/>
       <c r="F161" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -49501,7 +49508,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B1">
         <v>399.89</v>
@@ -49509,7 +49516,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B2">
         <v>0.56</v>
@@ -49517,24 +49524,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B3">
         <v>1.89</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -49545,12 +49552,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B10">
         <v>300</v>
@@ -49558,7 +49565,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B11">
         <v>84000</v>
@@ -49566,7 +49573,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B12">
         <v>33000</v>
@@ -49574,7 +49581,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B13">
         <v>90787</v>
@@ -49582,7 +49589,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B14">
         <f>SUM(B10:B13)</f>
@@ -49591,7 +49598,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -49599,7 +49606,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -49615,7 +49622,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -49623,7 +49630,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -49631,32 +49638,32 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -49666,52 +49673,52 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
   <si>
-    <t xml:space="preserve">馨苑悦湾 54.99
+    <t xml:space="preserve">馨苑悦湾 55.45
 </t>
   </si>
   <si>
@@ -522,10 +522,7 @@
     <t>马桶</t>
   </si>
   <si>
-    <t>希箭 智能液晶 冲水</t>
-  </si>
-  <si>
-    <t>实惠 功能多</t>
+    <t>karat 全智能 踢脚</t>
   </si>
   <si>
     <t>浴室柜组合</t>
@@ -571,6 +568,9 @@
   </si>
   <si>
     <t>全铜 玫瑰金</t>
+  </si>
+  <si>
+    <t>karat 智能</t>
   </si>
   <si>
     <t>浴室柜</t>
@@ -855,12 +855,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -869,66 +869,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -940,36 +882,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -987,9 +913,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -998,6 +923,81 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1081,7 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,7 +1093,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,31 +1165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,43 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,11 +1320,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,32 +1359,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,11 +1387,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,15 +1414,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,7 +1431,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1440,143 +1440,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1597,11 +1597,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1613,7 +1613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,13 +1637,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1655,10 +1655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1670,34 +1670,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,13 +1709,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1724,40 +1724,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1790,22 +1790,22 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1825,25 +1825,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2192,9 +2192,9 @@
   <dimension ref="A1:J4627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4095,14 +4095,14 @@
         <v>1</v>
       </c>
       <c r="F95" s="22">
-        <v>2000</v>
-      </c>
-      <c r="G95" s="15">
+        <v>5300</v>
+      </c>
+      <c r="G95" s="23">
         <f>E95*F95</f>
-        <v>2000</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>166</v>
+        <v>5300</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="96" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4110,10 +4110,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>14</v>
@@ -4137,10 +4137,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="13"/>
@@ -4157,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>172</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="13"/>
@@ -4177,10 +4177,10 @@
         <v>5</v>
       </c>
       <c r="B99" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="13"/>
@@ -4197,10 +4197,10 @@
         <v>6</v>
       </c>
       <c r="B100" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>14</v>
@@ -4224,10 +4224,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>178</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>46</v>
@@ -4251,10 +4251,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>46</v>
@@ -4278,10 +4278,10 @@
         <v>9</v>
       </c>
       <c r="B103" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="13"/>
@@ -4313,7 +4313,7 @@
         <v>164</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D105" s="21" t="s">
         <v>14</v>
@@ -4322,14 +4322,14 @@
         <v>1</v>
       </c>
       <c r="F105" s="22">
-        <v>2000</v>
-      </c>
-      <c r="G105" s="15">
+        <v>3300</v>
+      </c>
+      <c r="G105" s="23">
         <f>E105*F105</f>
-        <v>2000</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>166</v>
+        <v>3300</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -4384,7 +4384,7 @@
         <v>185</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="13"/>
@@ -4421,7 +4421,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>188</v>
@@ -4465,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>191</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C153" s="77">
         <f>SUM(G1:G152)</f>
-        <v>549946.2</v>
+        <v>554546.2</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
@@ -49708,7 +49708,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
   <si>
-    <t xml:space="preserve">馨苑悦湾 72.98
+    <t xml:space="preserve">馨苑悦湾 73.33
 </t>
   </si>
   <si>
@@ -346,7 +346,7 @@
     <t>领绣墙布 280每平</t>
   </si>
   <si>
-    <t>已付3000定金</t>
+    <t>已付清（含安装）</t>
   </si>
   <si>
     <t>次卧背景</t>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>高级灰，留了余量</t>
-  </si>
-  <si>
-    <t>已付清，淘宝</t>
   </si>
   <si>
     <t>硅藻泥</t>
@@ -443,6 +440,9 @@
   </si>
   <si>
     <t>主卫鱼鳞砖</t>
+  </si>
+  <si>
+    <t>已付清，淘宝</t>
   </si>
   <si>
     <t>客厅阳台地砖，角花</t>
@@ -754,6 +754,9 @@
     <t>玄关台</t>
   </si>
   <si>
+    <t>大象 定做</t>
+  </si>
+  <si>
     <t>电箱遮挡箱</t>
   </si>
   <si>
@@ -867,13 +870,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -882,8 +885,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -898,34 +976,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -935,73 +988,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1011,6 +1000,20 @@
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1094,7 +1097,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,91 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,6 +1338,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
@@ -1372,32 +1419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1412,24 +1433,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1441,148 +1444,148 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,10 +1720,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1732,7 +1735,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1750,10 +1753,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1838,34 +1841,34 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="强调文字颜色 4" xfId="4"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
-    <cellStyle name="好_预算" xfId="9"/>
+    <cellStyle name="好_预算" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="标题" xfId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2214,9 +2217,9 @@
   <dimension ref="A1:J4627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3318,8 +3321,8 @@
       <c r="D53" s="22"/>
       <c r="E53" s="13"/>
       <c r="F53" s="23"/>
-      <c r="G53" s="45">
-        <v>10000</v>
+      <c r="G53" s="24">
+        <v>10200</v>
       </c>
       <c r="H53" s="45" t="s">
         <v>107</v>
@@ -3338,7 +3341,7 @@
       <c r="D54" s="22"/>
       <c r="E54" s="13"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="46"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="46"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -3354,7 +3357,7 @@
       <c r="D55" s="22"/>
       <c r="E55" s="13"/>
       <c r="F55" s="23"/>
-      <c r="G55" s="45"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="45"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -3379,7 +3382,7 @@
         <v>2242</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
@@ -3387,10 +3390,10 @@
         <v>5</v>
       </c>
       <c r="B57" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="39" t="s">
         <v>115</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>116</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="13"/>
@@ -3399,13 +3402,13 @@
         <v>8000</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A58" s="34"/>
       <c r="B58" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="16"/>
@@ -3419,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="48">
@@ -3441,10 +3444,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="39" t="s">
         <v>121</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>122</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="29">
@@ -3463,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="28"/>
@@ -3481,7 +3484,7 @@
     <row r="62" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A62" s="34"/>
       <c r="B62" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="16"/>
@@ -3495,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>126</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="13"/>
@@ -3515,10 +3518,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="13"/>
@@ -3531,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="13"/>
@@ -3547,7 +3550,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="14">
         <v>1600</v>
@@ -3561,7 +3564,7 @@
     <row r="67" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A67" s="34"/>
       <c r="B67" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="16"/>
@@ -3575,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="22"/>
@@ -3593,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="22"/>
@@ -3607,7 +3610,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="22"/>
@@ -3621,7 +3624,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="22"/>
@@ -3635,7 +3638,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="22"/>
@@ -3649,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F73" s="58"/>
       <c r="G73" s="57"/>
@@ -3660,7 +3663,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="22"/>
@@ -3670,7 +3673,7 @@
         <v>1112</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4149,7 +4152,7 @@
     <row r="97" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A97" s="34"/>
       <c r="B97" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="16"/>
@@ -4376,7 +4379,7 @@
     <row r="107" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A107" s="34"/>
       <c r="B107" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="16"/>
@@ -4565,7 +4568,7 @@
     <row r="116" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A116" s="34"/>
       <c r="B116" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="16"/>
@@ -5253,7 +5256,9 @@
       <c r="B147" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C147" s="14"/>
+      <c r="C147" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="D147" s="22" t="s">
         <v>53</v>
       </c>
@@ -5261,19 +5266,21 @@
         <v>1</v>
       </c>
       <c r="F147" s="23">
-        <v>600</v>
-      </c>
-      <c r="G147" s="15">
-        <v>600</v>
-      </c>
-      <c r="H147" s="68"/>
+        <v>3880</v>
+      </c>
+      <c r="G147" s="24">
+        <v>3880</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="148" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A148" s="21">
         <v>2</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>193</v>
@@ -5291,7 +5298,7 @@
     <row r="149" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A149" s="34"/>
       <c r="B149" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="16"/>
@@ -5305,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="22" t="s">
@@ -5328,7 +5335,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C151" s="14"/>
       <c r="D151" s="22" t="s">
@@ -5349,7 +5356,7 @@
     <row r="152" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A152" s="34"/>
       <c r="B152" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="16"/>
@@ -5363,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C153" s="70"/>
       <c r="D153" s="71"/>
@@ -5379,7 +5386,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C154" s="70"/>
       <c r="D154" s="71"/>
@@ -5400,11 +5407,11 @@
     <row r="156" s="5" customFormat="1" ht="27" spans="1:8">
       <c r="A156" s="21"/>
       <c r="B156" s="77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C156" s="78">
         <f>SUM(G1:G155)</f>
-        <v>729844.2</v>
+        <v>733324.2</v>
       </c>
       <c r="D156" s="75"/>
       <c r="E156" s="75"/>
@@ -5421,7 +5428,7 @@
     <row r="158" s="3" customFormat="1" ht="90" customHeight="1" spans="1:8">
       <c r="A158" s="21"/>
       <c r="B158" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C158" s="81"/>
       <c r="G158" s="82"/>
@@ -5430,26 +5437,26 @@
     <row r="159" s="3" customFormat="1" ht="44" customHeight="1" spans="1:8">
       <c r="A159" s="21"/>
       <c r="B159" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C159" s="14">
         <v>2000</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G159" s="82"/>
       <c r="H159" s="82"/>
     </row>
     <row r="160" s="3" customFormat="1" ht="32" customHeight="1" spans="2:8">
       <c r="B160" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C160" s="14">
         <v>8000</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G160" s="82"/>
       <c r="H160" s="82"/>
@@ -5464,7 +5471,7 @@
     <row r="162" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A162" s="12"/>
       <c r="B162" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C162"/>
       <c r="D162" s="22"/>
@@ -5475,7 +5482,7 @@
     </row>
     <row r="163" s="3" customFormat="1" ht="22" customHeight="1" spans="2:8">
       <c r="B163" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C163">
         <v>300</v>
@@ -5485,7 +5492,7 @@
     </row>
     <row r="164" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B164" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C164">
         <v>84000</v>
@@ -5495,7 +5502,7 @@
     </row>
     <row r="165" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B165" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C165">
         <v>33000</v>
@@ -5505,7 +5512,7 @@
     </row>
     <row r="166" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B166" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C166">
         <v>90787</v>
@@ -5515,7 +5522,7 @@
     </row>
     <row r="167" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B167" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C167">
         <f>SUM(C163:C166)</f>
@@ -5526,7 +5533,7 @@
     </row>
     <row r="168" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B168" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C168">
         <v>10750</v>
@@ -5536,7 +5543,7 @@
     </row>
     <row r="169" s="3" customFormat="1" ht="29" customHeight="1" spans="2:8">
       <c r="B169" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C169" s="1">
         <f>SUM(C167:C168)</f>
@@ -49598,7 +49605,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B1">
         <v>399.89</v>
@@ -49606,7 +49613,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2">
         <v>0.56</v>
@@ -49614,24 +49621,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B3">
         <v>1.89</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -49642,12 +49649,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B10">
         <v>300</v>
@@ -49655,7 +49662,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B11">
         <v>84000</v>
@@ -49663,7 +49670,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B12">
         <v>33000</v>
@@ -49671,7 +49678,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B13">
         <v>90787</v>
@@ -49679,7 +49686,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B14">
         <f>SUM(B10:B13)</f>
@@ -49688,7 +49695,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B15">
         <v>10750</v>
@@ -49696,7 +49703,7 @@
     </row>
     <row r="16" ht="18.75" spans="1:2">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B14:B15)</f>
@@ -49705,17 +49712,17 @@
     </row>
     <row r="27" ht="18.75" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -49725,7 +49732,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -49740,12 +49747,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -49755,17 +49762,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -49780,7 +49787,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/common/iris 主要模块/装修预算.xlsx
+++ b/common/iris 主要模块/装修预算.xlsx
@@ -370,7 +370,7 @@
     <t>硅藻泥</t>
   </si>
   <si>
-    <t>深呼吸（80每平 ,g111）客厅玄关阳台走道，外走道 128平（下次做的时候要压的重一点， 平的面积大）</t>
+    <t>深呼吸（80每平 ,色号g111）客厅玄关阳台走道，外走道 128平（下次做的时候要压的重一点， 平的面积大，颗粒感不会很强）</t>
   </si>
   <si>
     <t>木地板</t>
@@ -888,13 +888,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -904,22 +904,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -927,12 +920,6 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -949,27 +936,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -983,13 +963,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1001,37 +1020,18 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1115,7 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,13 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,19 +1145,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,13 +1175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,25 +1199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,15 +1356,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -1383,30 +1374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1418,6 +1385,39 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,16 +1438,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,148 +1462,148 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1859,34 +1859,34 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="强调文字颜色 4" xfId="4"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
-    <cellStyle name="好_预算" xfId="9"/>
+    <cellStyle name="好_预算" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="标题" xfId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2235,9 +2235,9 @@
   <dimension ref="A1:J4628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
